--- a/biology/Médecine/Dyslexie/Dyslexie.xlsx
+++ b/biology/Médecine/Dyslexie/Dyslexie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dyslexie est un trouble de la lecture et de l’écriture  spécifique et durable qui apparaît chez l'enfant et l'adolescent (certains auteurs l'appellent aussi dyslexie développementale). Le trouble peut se traduire à des degrés divers par des difficultés à épeler les mots, lire vite, écrire, lire à haute voix ou bien comprendre ce qui est lu. La dyslexie est reconnue comme un trouble spécifique du langage et des apprentissages (abrégé TSLA[2]) et trouble en dys-.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyslexie est un trouble de la lecture et de l’écriture  spécifique et durable qui apparaît chez l'enfant et l'adolescent (certains auteurs l'appellent aussi dyslexie développementale). Le trouble peut se traduire à des degrés divers par des difficultés à épeler les mots, lire vite, écrire, lire à haute voix ou bien comprendre ce qui est lu. La dyslexie est reconnue comme un trouble spécifique du langage et des apprentissages (abrégé TSLA) et trouble en dys-.
 La dyslexie est un trouble dont les causes ne sont pas suffisamment éclaircies et qui fait l'objet de nombreuses études et débats. Dans ce contexte, définir et diagnostiquer précisément la dyslexie reste un sujet de controverse. La dyslexie est définie à la fois par des résultats à des tests de lecture comparés aux normes[INSERM_2007 1] (points de vue psychométrique et cognitif) et par des critères médicaux (diagnostic), comme un trouble spécifique qui exclut les causes d'origine uniquement sensorielle (problème de vue ou d'audition), uniquement contextuelle (sociale) ou uniquement psychologique (affective). Des études en neurosciences font l'hypothèse d'un trouble neurologique spécifique, dont l'origine génétique est discutée.
 Le diagnostic, d'ordre médical, se fait selon les critères précis des classements de référence que sont la classification internationale des maladies (CIM) et le manuel diagnostique et statistique des troubles mentaux (DSM) (voir paragraphe diagnostic).
 La compréhension des mécanismes en cause dans la, ou les, dyslexie(s), a beaucoup évolué grâce à l'imagerie cérébrale qui a mis en évidence des corrélations avec l'utilisation de différentes aires cérébrales à la lecture, notamment moindres que celles impliquées dans le langage, mais aussi accrue d'autres aires (voir paragraphe mécanismes).
-Enfin, la prise en charge peut prendre différents aspects en fonction de la spécificité de chaque cas qui doit être évalué par un bilan pluridisciplinaire (voir le paragraphe prise en charge). Les solutions ensuite proposées à ces troubles de l'apprentissage de la lecture doivent être adaptées à chaque cas particulier ; la prise en charge ne se limite pas à la définition exclusive d'« une organisation cérébrale différente » comme elle est établie par l’association Dyslexie suisse romande, qui précise « qui existe donc "dès la naissance" »[3].[pas clair]
+Enfin, la prise en charge peut prendre différents aspects en fonction de la spécificité de chaque cas qui doit être évalué par un bilan pluridisciplinaire (voir le paragraphe prise en charge). Les solutions ensuite proposées à ces troubles de l'apprentissage de la lecture doivent être adaptées à chaque cas particulier ; la prise en charge ne se limite pas à la définition exclusive d'« une organisation cérébrale différente » comme elle est établie par l’association Dyslexie suisse romande, qui précise « qui existe donc "dès la naissance" ».[pas clair]
 </t>
         </is>
       </c>
@@ -517,24 +529,169 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Troubles durables et spécifiques du développement, les troubles en dys-
-La dyslexie fait partie des troubles spécifiques durables de l’acquisition communément appelés « dys- » : la dysphasie (du langage oral), la dyscalculie (du calcul) et la dyspraxie (du développement des coordinations et praxies)[4]. Les troubles spécifiques et durables des apprentissages (dys-) sont spécifiques car ils affectent un seul secteur de la cognition, et ne sont pas des troubles cognitifs ou intellectuels généraux. Ces troubles spécifiques ont pour particularité que, « on ne peut leur assigner, en l'état actuel des connaissances, une cause organique, psychiatrique ou sociologique[5] ». Leurs causes restent largement débattues (voir ci-dessous).
-Parmi ces troubles d'apprentissage, la dyslexie est celui qui est le plus souvent diagnostiqué[6].
-Handicap
-En France, dès 1990, est reconnu dans une note de service[7] un nouveau handicap : la dyslexie, et les recommandations se portent immédiatement sur une prise en charge multi-disciplinaire, afin d’éviter « une forme de ségrégation » de ces enfants en difficulté aux « capacités intellectuelles réelles ».
+          <t>Troubles durables et spécifiques du développement, les troubles en dys-</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dyslexie fait partie des troubles spécifiques durables de l’acquisition communément appelés « dys- » : la dysphasie (du langage oral), la dyscalculie (du calcul) et la dyspraxie (du développement des coordinations et praxies). Les troubles spécifiques et durables des apprentissages (dys-) sont spécifiques car ils affectent un seul secteur de la cognition, et ne sont pas des troubles cognitifs ou intellectuels généraux. Ces troubles spécifiques ont pour particularité que, « on ne peut leur assigner, en l'état actuel des connaissances, une cause organique, psychiatrique ou sociologique ». Leurs causes restent largement débattues (voir ci-dessous).
+Parmi ces troubles d'apprentissage, la dyslexie est celui qui est le plus souvent diagnostiqué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation contextuelle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Handicap</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, dès 1990, est reconnu dans une note de service un nouveau handicap : la dyslexie, et les recommandations se portent immédiatement sur une prise en charge multi-disciplinaire, afin d’éviter « une forme de ségrégation » de ces enfants en difficulté aux « capacités intellectuelles réelles ».
 La dyslexie est reconnue comme un handicap par l'OMS depuis 1993.
 L'OMS avait depuis les années 1980 développé une approche environnementale du handicap. Contrairement à l'approche médicale du handicap qui prévaut jusque dans les années 1970 et qui désigne une déficience de l'individu, l'approche environnementale [réf. nécessaire] est définie ainsi : « Le dyslexique est ainsi reconnu handicapé par un rapport plus difficile au langage qui le défavorise, mais sans présomption de cause. Il peut s'agir d'une défaillance physiologique aussi bien que d'un décalage fonctionnel, un mode de fonctionnement alternatif qui ne serait défavorable à l'individu que par l'effet du contexte culturel prédominant. »[réf. nécessaire]
-Épidémiologie
-Cette difficulté d'apprentissage de la lecture est relative à la scolarité, voire à l'éducation et la pédagogie, mais en tant que trouble spécifique de l'individu elle se rapporte aussi à la psychologie et la médecine qui la répertorient et la définissent dans leurs classements : CIM, DSM. Si « la cause exacte de la dyslexie n’est pas encore connue » on dépiste néanmoins un trouble dont « l’origine est neurologique et la cause génétique »[8] car certains chercheurs affirment l’existence d'une origine biologique[9],[10] même si des doutes sont émis[11], certains allant jusqu'à affirmer que la dyslexie, comme trouble cognitif spécifique, n'existe pas[12].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation contextuelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette difficulté d'apprentissage de la lecture est relative à la scolarité, voire à l'éducation et la pédagogie, mais en tant que trouble spécifique de l'individu elle se rapporte aussi à la psychologie et la médecine qui la répertorient et la définissent dans leurs classements : CIM, DSM. Si « la cause exacte de la dyslexie n’est pas encore connue » on dépiste néanmoins un trouble dont « l’origine est neurologique et la cause génétique » car certains chercheurs affirment l’existence d'une origine biologique, même si des doutes sont émis, certains allant jusqu'à affirmer que la dyslexie, comme trouble cognitif spécifique, n'existe pas.
 Les critères de définition, d'inclusion ou d'exclusion restent discutés. Si on parle de 8 à 12 % de la population mondiale touchée selon l'OMS, le rapport d'expertise de l'INSERM en 2007 indique que la prévalence du trouble ne fait pas l'objet de consensus car « les critères peuvent varier d’un auteur à l’autre et les seuils également[INSERM_2007 2] ». « Si le choix se porte sur 1 écart type, dans une distribution normale on trouve 16 % d’individus sous le seuil. Si on choisit 2 écarts-types (comme proposé par la classification internationale CIM-10), on n’en trouve plus que 2,5 %[INSERM_2007 1] ».
-En France, on estime néanmoins que « les élèves qui présentent des difficultés de lecture et d'orthographe, dues à un trouble de la reconnaissance des mots, appelés dyslexiques et dysorthographiques, sont estimés à environ 5 à 8 % de la population scolarisée. » « Il est important de distinguer parmi les enfants faibles lecteurs ceux qui présentent de simples difficultés de lecture (retard simple) et ceux dont les faibles compétences en lecture résultent d'un trouble cognitif (les enfants dyslexiques)[13]. »
-Évolution des critères
-L'histoire du trouble attribue la première description à l’ophtalmologiste Allemand Oswald Berkhan, en 1881, et la dénomination à Rudolf Berlin, en 1887, mais sa formalisation date seulement de 1991 quand l'Organisation mondiale de la santé reconnaît la spécificité d'un trouble du développement des acquisitions scolaires et le classe parmi les handicaps[14].
+En France, on estime néanmoins que « les élèves qui présentent des difficultés de lecture et d'orthographe, dues à un trouble de la reconnaissance des mots, appelés dyslexiques et dysorthographiques, sont estimés à environ 5 à 8 % de la population scolarisée. » « Il est important de distinguer parmi les enfants faibles lecteurs ceux qui présentent de simples difficultés de lecture (retard simple) et ceux dont les faibles compétences en lecture résultent d'un trouble cognitif (les enfants dyslexiques). »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation contextuelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évolution des critères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'histoire du trouble attribue la première description à l’ophtalmologiste Allemand Oswald Berkhan, en 1881, et la dénomination à Rudolf Berlin, en 1887, mais sa formalisation date seulement de 1991 quand l'Organisation mondiale de la santé reconnaît la spécificité d'un trouble du développement des acquisitions scolaires et le classe parmi les handicaps.
 Entretemps, en 1929, le neurologue Samuel T. Orton distingue des dyslexies acquises à la suite d'une lésion cérébrale, chez des personnes qui lisaient tout à fait normalement avant cette atteinte du système nerveux central. Appelé aussi alexie, ce cas neurologique est alors distingué des autres dyslexies liées à l'apprentissage, et dites « développementales ».
-Décrit par Pringle et Morgan dès 1896, ce trouble de l'apprentissage est d'abord non exclusif et inclut toutes les causes comme le précise encore Krik en 1963[15] ; mais à la recherche d'une singularité spécifique, on distingue « un ensemble de difficultés des apprentissages qui ne peuvent être attribuées ni à un retard intellectuel, ni à un handicap physique, ni à des conditions adverses de l’environnement. »[INSERM_2007 3].
-Cette spécificité dont l'attribution à la génétique est très débattue trouve néanmoins un écho physiologique observable en Imagerie cérébrale depuis les années 1990, par exemple par IRM fonctionnelle, « l’activité cérébrale de 144 enfants, dyslexiques et témoins, réalisant des tâches liées à la lecture ». Les enfants témoins activent des aires précises du cortex gauche, ainsi qu’une zone frontale impliquée dans le langage, là aussi à gauche. Les dyslexiques « compensent » la moindre activité de ces zones en utilisant des régions plus ou moins symétriques de l’hémisphère droit, et s’appuient beaucoup plus sur les aires frontales des deux côtés[16].
-Rôle du contexte
-Certains facteurs environnementaux influencent les taux de dyslexie. Ces facteurs sont notamment l’origine sociale et l’environnement linguistique[INSERM_2007 4].
+Décrit par Pringle et Morgan dès 1896, ce trouble de l'apprentissage est d'abord non exclusif et inclut toutes les causes comme le précise encore Krik en 1963 ; mais à la recherche d'une singularité spécifique, on distingue « un ensemble de difficultés des apprentissages qui ne peuvent être attribuées ni à un retard intellectuel, ni à un handicap physique, ni à des conditions adverses de l’environnement. »[INSERM_2007 3].
+Cette spécificité dont l'attribution à la génétique est très débattue trouve néanmoins un écho physiologique observable en Imagerie cérébrale depuis les années 1990, par exemple par IRM fonctionnelle, « l’activité cérébrale de 144 enfants, dyslexiques et témoins, réalisant des tâches liées à la lecture ». Les enfants témoins activent des aires précises du cortex gauche, ainsi qu’une zone frontale impliquée dans le langage, là aussi à gauche. Les dyslexiques « compensent » la moindre activité de ces zones en utilisant des régions plus ou moins symétriques de l’hémisphère droit, et s’appuient beaucoup plus sur les aires frontales des deux côtés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation contextuelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rôle du contexte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains facteurs environnementaux influencent les taux de dyslexie. Ces facteurs sont notamment l’origine sociale et l’environnement linguistique[INSERM_2007 4].
 L'environnement linguistique désigne notamment la langue parlée, car les langues à plus forte transparence orthographique sont moins handicapantes. Les enfants dyslexiques qui doivent maîtriser des langues transparentes comme l'italien ou l'espagnol lisent le plus souvent sans erreur ; leur trouble se manifeste essentiellement par une lenteur de lecture [réf. nécessaire]. Au contraire, les erreurs de lecture (déformation des mots, décodage partiel) sont fréquentes dans les langues à l'orthographe opaque comme l'anglais ou le français. Dans ces langues, le trouble affecte à la fois la qualité (exactitude) et le temps de lecture.
 On définit ainsi un trouble de l'apprentissage dont les mécanismes seraient internes, physiologiques, cognitifs, mais qui restent néanmoins sensibles à l'environnement. La synthèse du rapport de l'INSERM le précise ainsi :
 « Même si la définition de ces troubles dans les classifications exclut une origine culturelle, sociale, économique, pédagogique ou psychologique, cela ne signifie pas pour autant que ces facteurs ne jouent pas un rôle[INSERM_2007 5]. »
@@ -542,40 +699,76 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Dyslexie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'OMS classe la dyslexie parmi les handicaps et les maladies en général (par le CIM), mais une déficience cognitive directement identifiable sans passer par les effets constatés reste insaisissable par les chercheurs. Alors on propose 3 critères de définitions[INSERM_2007 6] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'OMS classe la dyslexie parmi les handicaps et les maladies en général (par le CIM), mais une déficience cognitive directement identifiable sans passer par les effets constatés reste insaisissable par les chercheurs. Alors on propose 3 critères de définitions[INSERM_2007 6] :
 critère de « discordance » (discrepancy) entre les difficultés à des épreuves liées au trouble en question et les bonnes performances à d’autres épreuves cognitives ;
 critère d’exclusion : les troubles ne doivent pas avoir comme cause primaire ni un retard global, ni un handicap sensoriel, ni un environnement défavorable (pédagogie inadaptée, niveau socioculturel insuffisant, diversité linguistique), ni troubles mentaux avérés ;
-le trouble est dû à des facteurs intrinsèques à l’enfant (ce point dérive directement des deux précédents et met l’accent sur l’origine neurobiologique des troubles).
-Bilan pluridisciplinaire
-Diagnostiquer « c'est identifier le trouble, en précisant le caractère spécifique et la sévérité de celui-ci. Le diagnostic pluridisciplinaire s'appuie sur un bilan médical, orthophonique et (neuro) psychologique »[17].
-La Fédération française des Dys précise que « compte tenu de la difficulté de poser un diagnostic, la composition d’équipes plurielles permet de bénéficier de regards croisés et d’une complémentarité des approches pour considérer l’enfant dans sa globalité »[18].
-De son côté, l'INPES explique ainsi que « La démarche diagnostique s’appuie sur un bilan complet à la recherche de troubles « dys », mais aussi de troubles auditifs, visuels, etc. Ce bilan sert également à préciser la nature et l’intensité du trouble. Enfin, il va permettre d’élaborer un projet d’accompagnement »[19].
+le trouble est dû à des facteurs intrinsèques à l’enfant (ce point dérive directement des deux précédents et met l’accent sur l’origine neurobiologique des troubles).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dyslexie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dyslexie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bilan pluridisciplinaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnostiquer « c'est identifier le trouble, en précisant le caractère spécifique et la sévérité de celui-ci. Le diagnostic pluridisciplinaire s'appuie sur un bilan médical, orthophonique et (neuro) psychologique ».
+La Fédération française des Dys précise que « compte tenu de la difficulté de poser un diagnostic, la composition d’équipes plurielles permet de bénéficier de regards croisés et d’une complémentarité des approches pour considérer l’enfant dans sa globalité ».
+De son côté, l'INPES explique ainsi que « La démarche diagnostique s’appuie sur un bilan complet à la recherche de troubles « dys », mais aussi de troubles auditifs, visuels, etc. Ce bilan sert également à préciser la nature et l’intensité du trouble. Enfin, il va permettre d’élaborer un projet d’accompagnement ».
 Le diagnostic de dyslexie suppose donc un bilan pluridisciplinaire (médecin, psychologue, orthophoniste) qui permet d'éliminer d'autres causes possibles des difficultés rencontrées (diagnostic différentiel). Ce bilan vise également à caractériser le degré de sévérité du trouble (associations d'autres types de déficits ou comorbidités) et à cerner le profil cognitif de l'enfant (déficits cognitifs associés ou processus préservés). Ce bilan pluridisciplinaire doit enfin conduire à proposer des réponses adaptées aux besoins de l'enfant en termes d'aménagements scolaires, de prise en charge éducative et de remédiation personnalisée.
 </t>
         </is>
